--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/IISTestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
     <sheet name="IISParam_Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="IIS_AccuralDeal_609" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>UserType</t>
   </si>
@@ -103,13 +103,85 @@
   </si>
   <si>
     <t>GOWTHAM</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>DataSet ID</t>
+  </si>
+  <si>
+    <t>Product Class</t>
+  </si>
+  <si>
+    <t>AT_AD_001</t>
+  </si>
+  <si>
+    <t>AT_AD_001_D1</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>101101</t>
+  </si>
+  <si>
+    <t>Maturity GL</t>
+  </si>
+  <si>
+    <t>Nostro GL</t>
+  </si>
+  <si>
+    <t>Settlement Type</t>
+  </si>
+  <si>
+    <t>Demand Deposit Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Of Payments </t>
+  </si>
+  <si>
+    <t>Pay Every</t>
+  </si>
+  <si>
+    <t>AT_IC_023</t>
+  </si>
+  <si>
+    <t>AT_IC_023_D1</t>
+  </si>
+  <si>
+    <t>Charge Allocation Criteria</t>
+  </si>
+  <si>
+    <t>Next Installment</t>
+  </si>
+  <si>
+    <t>AT_IC_024</t>
+  </si>
+  <si>
+    <t>AT_IC_024_D1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +202,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +242,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,17 +278,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -965,12 +1105,217 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1">
+      <c r="A2" s="8">
+        <v>128348</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="9">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9">
+        <v>5</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="9">
+        <v>411001</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="9">
+        <v>48</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" s="7" customFormat="1">
+      <c r="A3" s="8">
+        <v>1166872</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1069</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>118</v>
+      </c>
+      <c r="G3" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="9">
+        <v>411001</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="9">
+        <v>48</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="7" customFormat="1">
+      <c r="A4" s="8">
+        <v>1166873</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1069</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>118</v>
+      </c>
+      <c r="G4" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="9">
+        <v>4</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="9">
+        <v>411001</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="9">
+        <v>48</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/IISTestData.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
     <sheet name="IISParam_Login" sheetId="2" r:id="rId2"/>
     <sheet name="IIS_AccuralDeal_609" sheetId="3" r:id="rId3"/>
+    <sheet name="IIS_IncidentalCharges_609" sheetId="4" r:id="rId4"/>
+    <sheet name="IIS_AccrualProcess_609" sheetId="5" r:id="rId5"/>
+    <sheet name="MTS_TestData_609" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>UserType</t>
   </si>
@@ -175,13 +178,85 @@
   </si>
   <si>
     <t>AT_IC_024_D1</t>
+  </si>
+  <si>
+    <t>AT_IC_025</t>
+  </si>
+  <si>
+    <t>AT_IC_025_D1</t>
+  </si>
+  <si>
+    <t>435123</t>
+  </si>
+  <si>
+    <t>Party Amount</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Additional Ref</t>
+  </si>
+  <si>
+    <t>Brief Name</t>
+  </si>
+  <si>
+    <t>Long Name</t>
+  </si>
+  <si>
+    <t>Menu Ref</t>
+  </si>
+  <si>
+    <t>Periodicity DD</t>
+  </si>
+  <si>
+    <t>Process Batch DD</t>
+  </si>
+  <si>
+    <t>Batch Run Date</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Manually</t>
+  </si>
+  <si>
+    <t>AT_AP_060</t>
+  </si>
+  <si>
+    <t>AT_AP_061</t>
+  </si>
+  <si>
+    <t>AT_AP_062</t>
+  </si>
+  <si>
+    <t>AT_AP_060_D!</t>
+  </si>
+  <si>
+    <t>AT_AP_061_D!</t>
+  </si>
+  <si>
+    <t>AT_AP_062_D!</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>29/06/2016</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +293,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -298,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -320,6 +401,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1105,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1221,15 +1316,141 @@
       </c>
       <c r="O2" s="9"/>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1">
+      <c r="A2" s="8">
+        <v>1166872</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="9">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9">
+        <v>5</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="9">
+        <v>411001</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="9">
+        <v>48</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="3" spans="1:15" s="7" customFormat="1">
       <c r="A3" s="8">
-        <v>1166872</v>
+        <v>1166873</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D3" s="9">
         <v>1069</v>
@@ -1273,10 +1494,10 @@
         <v>1166873</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9">
         <v>1069</v>
@@ -1311,11 +1532,328 @@
       <c r="N4" s="9">
         <v>1</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="O4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="18" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="7" customFormat="1">
+      <c r="A2" s="8">
+        <v>1166872</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="9">
+        <v>143001</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9">
+        <v>10000</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>40344</v>
+      </c>
+      <c r="R2" s="12">
+        <v>40344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="7" customFormat="1">
+      <c r="A3" s="8">
+        <v>1166872</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1069</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>118</v>
+      </c>
+      <c r="G3" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="9">
+        <v>143001</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9">
+        <v>10000</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>40344</v>
+      </c>
+      <c r="R3" s="12">
+        <v>40344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="P4" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20" style="13" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="14" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" s="16" customFormat="1">
+      <c r="A2" s="8">
+        <v>876906</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="16" customFormat="1">
+      <c r="A3" s="8">
+        <v>876908</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" s="16" customFormat="1">
+      <c r="A4" s="8">
+        <v>876909</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/IISTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,17 @@
     <sheet name="IIS_AccuralDeal_609" sheetId="3" r:id="rId3"/>
     <sheet name="IIS_IncidentalCharges_609" sheetId="4" r:id="rId4"/>
     <sheet name="IIS_AccrualProcess_609" sheetId="5" r:id="rId5"/>
-    <sheet name="MTS_TestData_609" sheetId="6" r:id="rId6"/>
+    <sheet name="IIS_AccountRestrictions_609" sheetId="8" r:id="rId6"/>
+    <sheet name="IIS_AccountBalanceChecking_609" sheetId="7" r:id="rId7"/>
+    <sheet name="MTS_TestData_609" sheetId="6" r:id="rId8"/>
+    <sheet name="IIS_AdvancePrincipalSettlement" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
   <si>
     <t>UserType</t>
   </si>
@@ -250,6 +253,87 @@
   </si>
   <si>
     <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>AT_AD_002</t>
+  </si>
+  <si>
+    <t>AT_AD_002_D1</t>
+  </si>
+  <si>
+    <t>AT_ABC_007</t>
+  </si>
+  <si>
+    <t>AT_ABC_007_D1</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>Time Period</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Deal CY</t>
+  </si>
+  <si>
+    <t>Deal CY2</t>
+  </si>
+  <si>
+    <t>Deal CY3</t>
+  </si>
+  <si>
+    <t>FMS_User13</t>
+  </si>
+  <si>
+    <t>SYSADM</t>
+  </si>
+  <si>
+    <t>AT_AR_001</t>
+  </si>
+  <si>
+    <t>AT_AR_002</t>
+  </si>
+  <si>
+    <t>AT_AR_001_D1</t>
+  </si>
+  <si>
+    <t>AT_AR_002_D1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Restriction Type</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Account Restriction</t>
+  </si>
+  <si>
+    <t>Advance Principal</t>
+  </si>
+  <si>
+    <t>AT_APS_030</t>
+  </si>
+  <si>
+    <t>AT_APS_031</t>
+  </si>
+  <si>
+    <t>AT_APS_032</t>
+  </si>
+  <si>
+    <t>AT_APS_030_D1</t>
+  </si>
+  <si>
+    <t>AT_APS_031_D1</t>
+  </si>
+  <si>
+    <t>AT_APS_032_D1</t>
   </si>
 </sst>
 </file>
@@ -712,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -946,6 +1030,23 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3">
+        <v>321</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1200,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1222,9 +1323,10 @@
     <col min="13" max="13" width="24.140625" customWidth="1"/>
     <col min="14" max="14" width="16.140625" customWidth="1"/>
     <col min="15" max="15" width="29.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="51.75" customHeight="1">
+    <row r="1" spans="1:16" s="7" customFormat="1" ht="51.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -1270,8 +1372,11 @@
       <c r="O1" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="7" customFormat="1">
+      <c r="P1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="7" customFormat="1">
       <c r="A2" s="8">
         <v>128348</v>
       </c>
@@ -1315,6 +1420,58 @@
         <v>1</v>
       </c>
       <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" s="7" customFormat="1">
+      <c r="A3" s="8">
+        <v>128348</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1069</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>118</v>
+      </c>
+      <c r="G3" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="9">
+        <v>411001</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="9">
+        <v>48</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="P4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1326,7 +1483,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1544,7 +1701,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1722,9 +1879,278 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" s="7" customFormat="1">
+      <c r="A2" s="8">
+        <v>131558</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1">
+      <c r="A3" s="8">
+        <v>131559</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="19" width="20.85546875" customWidth="1"/>
+    <col min="20" max="20" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="7" customFormat="1">
+      <c r="A2" s="8">
+        <v>1538372</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9">
+        <v>500000</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>6</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="9">
+        <v>411001</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9">
+        <v>7500</v>
+      </c>
+      <c r="N2" s="9">
+        <v>100</v>
+      </c>
+      <c r="O2" s="9">
+        <v>5</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -1856,4 +2282,205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" activeCellId="1" sqref="N3 M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1">
+      <c r="A2" s="8">
+        <v>262327</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="9">
+        <v>727</v>
+      </c>
+      <c r="E2" s="9">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9">
+        <v>163</v>
+      </c>
+      <c r="G2" s="9">
+        <v>500000</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="9">
+        <v>411001</v>
+      </c>
+      <c r="L2" s="9">
+        <v>12</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1">
+      <c r="A3" s="8">
+        <v>274991</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="9">
+        <v>727</v>
+      </c>
+      <c r="E3" s="9">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9">
+        <v>163</v>
+      </c>
+      <c r="G3" s="9">
+        <v>150000000</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="9">
+        <v>411001</v>
+      </c>
+      <c r="L3" s="9">
+        <v>12</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="7" customFormat="1">
+      <c r="A4" s="8">
+        <v>399949</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="9">
+        <v>727</v>
+      </c>
+      <c r="E4" s="9">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9">
+        <v>163</v>
+      </c>
+      <c r="G4" s="9">
+        <v>500000</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="9">
+        <v>411001</v>
+      </c>
+      <c r="L4" s="9">
+        <v>24</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/IISTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="IIS_AccountBalanceChecking_609" sheetId="7" r:id="rId7"/>
     <sheet name="MTS_TestData_609" sheetId="6" r:id="rId8"/>
     <sheet name="IIS_AdvancePrincipalSettlement" sheetId="9" r:id="rId9"/>
+    <sheet name="IIS_Parameters_609" sheetId="11" r:id="rId10"/>
+    <sheet name="IIS_AuthorizationLimit_609" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="143">
   <si>
     <t>UserType</t>
   </si>
@@ -334,12 +336,130 @@
   </si>
   <si>
     <t>AT_APS_032_D1</t>
+  </si>
+  <si>
+    <t>AT_AUTL_009</t>
+  </si>
+  <si>
+    <t>AT_AUTL_009_D1</t>
+  </si>
+  <si>
+    <t>Authorization Limit</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>PATHQA</t>
+  </si>
+  <si>
+    <t>AT_AUTL_010</t>
+  </si>
+  <si>
+    <t>AT_AUTL_010_D1</t>
+  </si>
+  <si>
+    <t>AT_AUTL_006</t>
+  </si>
+  <si>
+    <t>AT_AUTL_006_D1</t>
+  </si>
+  <si>
+    <t>SortBy</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_007</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_007_D1</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_030</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_030_D1</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_036</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_036_D1</t>
+  </si>
+  <si>
+    <t>Calculate Profit</t>
+  </si>
+  <si>
+    <t>Profit Distribution Method</t>
+  </si>
+  <si>
+    <t>Diminishing Returns</t>
+  </si>
+  <si>
+    <t>Straight Line</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_037</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_037_D1</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Islamic Invest</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Product Class Code</t>
+  </si>
+  <si>
+    <t>Brief Description</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>Exposure Limit</t>
+  </si>
+  <si>
+    <t>VAT Code</t>
+  </si>
+  <si>
+    <t>VAT Percentage On</t>
+  </si>
+  <si>
+    <t>Settled Profit</t>
+  </si>
+  <si>
+    <t>Demo_PC</t>
+  </si>
+  <si>
+    <t>Demo_Product_Class</t>
+  </si>
+  <si>
+    <t>8892</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -804,12 +924,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1049,6 +1169,342 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="16" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="29.5703125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="29.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="32.28515625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="22.01953125" collapsed="false" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="7" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" s="7" customFormat="1">
+      <c r="A2" s="8">
+        <v>420879</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="9">
+        <v>100</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" s="7" customFormat="1">
+      <c r="A3" s="8">
+        <v>563259</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="9">
+        <v>100</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" s="7" customFormat="1">
+      <c r="A4" s="8">
+        <v>585453</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="9">
+        <v>100</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" s="7" customFormat="1">
+      <c r="A5" s="8">
+        <v>606865</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="27.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="32.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.5703125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="19.42578125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="18.5703125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="18.85546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1">
+      <c r="A2" s="8">
+        <v>1215513</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1">
+      <c r="A3" s="8">
+        <v>1298317</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="7" customFormat="1">
+      <c r="A4" s="8">
+        <v>721174</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="9">
+        <v>100</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1065,12 +1521,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1309,21 +1765,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="29.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="22.85546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="27.42578125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="24.140625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="29.5703125" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="16.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -1488,21 +1944,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.5703125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="18.7109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="16.5703125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="25.42578125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="16.42578125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="24.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -1706,23 +2162,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="18" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="22.7109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="18.42578125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="16.85546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="17.7109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="17.28515625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="16.5703125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="19.5703125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="27.140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="16.85546875" collapsed="false"/>
+    <col min="17" max="18" customWidth="true" width="18.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -1887,10 +2343,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -2000,21 +2456,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="19" width="20.85546875" customWidth="1"/>
-    <col min="20" max="20" width="28" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="false"/>
+    <col min="11" max="15" customWidth="true" width="14.140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="25.42578125" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="19.85546875" collapsed="false"/>
+    <col min="18" max="19" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="28.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -2156,18 +2612,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="23" style="7" customWidth="1"/>
-    <col min="10" max="10" width="20" style="13" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="7" width="16.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="7" width="20.7109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="7" width="22.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="7" width="25.42578125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="7" width="15.28515625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="7" width="16.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="7" width="19.42578125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="7" width="23.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="13" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="7" width="14.7109375" collapsed="false"/>
+    <col min="12" max="16384" style="7" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1">
@@ -2288,26 +2744,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" activeCellId="1" sqref="N3 M14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="17.42578125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="24.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="51.75" customHeight="1">

--- a/AzentioAutomationFramework_FMS_VIJAY3/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_VIJAY3/TestData/IISTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="171">
   <si>
     <t>UserType</t>
   </si>
@@ -452,14 +452,97 @@
     <t>Demo_Product_Class</t>
   </si>
   <si>
-    <t>8892</t>
+    <t>AT_IISPRM_070</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_070_D1</t>
+  </si>
+  <si>
+    <t>Third Party Details</t>
+  </si>
+  <si>
+    <t>Third Party Details Test</t>
+  </si>
+  <si>
+    <t>Find Based On</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>Find By</t>
+  </si>
+  <si>
+    <t>Find By Value</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_071_D1</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_071</t>
+  </si>
+  <si>
+    <t>Yield Roster</t>
+  </si>
+  <si>
+    <t>Yield Roster Test</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_072</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_072_D1</t>
+  </si>
+  <si>
+    <t>Yield RegisterTest</t>
+  </si>
+  <si>
+    <t>Yield Register</t>
+  </si>
+  <si>
+    <t>Yield Roster code</t>
+  </si>
+  <si>
+    <t>20/04/2023</t>
+  </si>
+  <si>
+    <t>27/04/2023</t>
+  </si>
+  <si>
+    <t>Modarib Rate Roster Code</t>
+  </si>
+  <si>
+    <t>Currency Type</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Period Number</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>Period Type</t>
+  </si>
+  <si>
+    <t>Counter Party</t>
+  </si>
+  <si>
+    <t>Party Type</t>
+  </si>
+  <si>
+    <t>Specific</t>
+  </si>
+  <si>
+    <t>Product Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -924,12 +1007,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1177,26 +1260,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="16" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="29.5703125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="29.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="32.28515625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="22.01953125" collapsed="false" bestFit="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="7" max="27" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" ht="51.75" customHeight="1">
+    <row r="1" spans="1:27" s="7" customFormat="1" ht="51.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -1225,24 +1306,61 @@
         <v>133</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" s="7" customFormat="1">
+      <c r="P1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="7" customFormat="1">
       <c r="A2" s="8">
         <v>420879</v>
       </c>
@@ -1267,8 +1385,19 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" s="7" customFormat="1">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" spans="1:27" s="7" customFormat="1">
       <c r="A3" s="8">
         <v>563259</v>
       </c>
@@ -1293,8 +1422,19 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" s="7" customFormat="1">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" spans="1:27" s="7" customFormat="1">
       <c r="A4" s="8">
         <v>585453</v>
       </c>
@@ -1323,8 +1463,19 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" s="7" customFormat="1">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" s="7" customFormat="1">
       <c r="A5" s="8">
         <v>606865</v>
       </c>
@@ -1347,26 +1498,190 @@
       <c r="H5" s="9">
         <v>3</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" s="7" customFormat="1">
+      <c r="A6" s="8">
+        <v>721421</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="C6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="R6" s="9">
+        <v>2</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" s="7" customFormat="1">
+      <c r="A7" s="8">
+        <v>721429</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="R7" s="9">
+        <v>2</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" s="7" customFormat="1">
+      <c r="A8" s="8">
+        <v>721437</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="9">
+        <v>308</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" s="9">
+        <v>2</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="V8" s="9">
+        <v>1</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="X8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1378,22 +1693,22 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="27.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="32.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.5703125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="19.42578125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="18.5703125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="18.85546875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -1521,12 +1836,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1765,21 +2080,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="22.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="27.42578125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="24.140625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="29.5703125" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="16.85546875" collapsed="false"/>
+    <col min="1" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="29.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -1944,21 +2259,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.5703125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="18.7109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="16.5703125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="25.42578125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="16.42578125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="24.0" collapsed="false"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -2162,23 +2477,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="21.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="22.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="18.42578125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="16.85546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="17.85546875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="17.7109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="17.28515625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="16.5703125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="19.5703125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="27.140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="16.85546875" collapsed="false"/>
-    <col min="17" max="18" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="18" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -2343,10 +2658,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="23.140625" collapsed="false"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -2456,21 +2771,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="17.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="false"/>
-    <col min="11" max="15" customWidth="true" width="14.140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="25.42578125" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="19.85546875" collapsed="false"/>
-    <col min="18" max="19" customWidth="true" width="20.85546875" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="28.0" collapsed="false"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="19" width="20.85546875" customWidth="1"/>
+    <col min="20" max="20" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="51.75" customHeight="1">
@@ -2607,23 +2922,23 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="7" width="16.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="7" width="20.7109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="7" width="22.42578125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="7" width="25.42578125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="7" width="15.28515625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="7" width="16.140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="7" width="19.42578125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="7" width="23.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="13" width="20.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="7" width="14.7109375" collapsed="false"/>
-    <col min="12" max="16384" style="7" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20" style="13" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1">
@@ -2750,20 +3065,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="17.42578125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="12.7109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="14.85546875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="24.5703125" collapsed="false"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="51.75" customHeight="1">
